--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>-1</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G103">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G104">
         <v>-1</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G105">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G109">
         <v>-1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G111">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G112">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G113">
         <v>-1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115">
         <v>-1</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G118">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119">
         <v>-1</v>

--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -636,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -889,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -981,10 +981,10 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1395,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -1487,10 +1487,10 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -1671,10 +1671,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1832,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2154,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2384,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -2637,10 +2637,10 @@
         <v>11</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G102">
         <v>-1</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G103">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>-1</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G105">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>-1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G111">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G112">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G118">
         <v>-1</v>

--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -1119,10 +1119,10 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1372,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1395,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2154,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>1</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G114">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G115">
         <v>-1</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G118">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G119">
         <v>-1</v>

--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -498,10 +498,10 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -659,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -751,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -774,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -820,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -958,10 +958,10 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -1050,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -1073,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -1142,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1257,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1372,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1395,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1510,10 +1510,10 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -1602,10 +1602,10 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -1740,10 +1740,10 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -1763,10 +1763,10 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1993,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2016,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2062,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -2085,10 +2085,10 @@
         <v>14</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2131,10 +2131,10 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -2177,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2246,10 +2246,10 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2269,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2292,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -2522,10 +2522,10 @@
         <v>16</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -2568,10 +2568,10 @@
         <v>20</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -2614,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G102">
         <v>-1</v>
@@ -2752,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G103">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G104">
         <v>-1</v>
@@ -2798,10 +2798,10 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G105">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G109">
         <v>-1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G111">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G112">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G113">
         <v>-1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G115">
         <v>-1</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G119">
         <v>-1</v>

--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -498,10 +498,10 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -659,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -751,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -774,10 +774,10 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -820,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -912,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -958,10 +958,10 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -1142,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1257,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1280,10 +1280,10 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -1349,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1372,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1510,10 +1510,10 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -1556,10 +1556,10 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1924,10 +1924,10 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2016,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2062,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -2085,10 +2085,10 @@
         <v>14</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2131,10 +2131,10 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2200,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2223,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2246,10 +2246,10 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2269,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2292,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -2522,10 +2522,10 @@
         <v>16</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -2568,10 +2568,10 @@
         <v>20</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -2614,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -2660,10 +2660,10 @@
         <v>19</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -2706,10 +2706,10 @@
         <v>20</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G102">
         <v>-1</v>
@@ -2752,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G103">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G104">
         <v>-1</v>
@@ -2798,10 +2798,10 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G105">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G109">
         <v>-1</v>
@@ -2913,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G111">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G112">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G113">
         <v>-1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>-1</v>
@@ -3028,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>-1</v>
@@ -3051,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -3074,10 +3074,10 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -3097,10 +3097,10 @@
         <v>11</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G118">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>-1</v>

--- a/Data/LP.xlsx
+++ b/Data/LP.xlsx
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -981,10 +981,10 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -1027,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -1119,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -1142,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -1786,10 +1786,10 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -1832,10 +1832,10 @@
         <v>12</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -1855,10 +1855,10 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -1924,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>20</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -2108,10 +2108,10 @@
         <v>14</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -2453,10 +2453,10 @@
         <v>13</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -2545,10 +2545,10 @@
         <v>16</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -2683,10 +2683,10 @@
         <v>19</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -2729,10 +2729,10 @@
         <v>20</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>-1</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>-1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>-1</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106">
         <v>-1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G107">
         <v>-1</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G108">
         <v>-1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G109">
         <v>-1</v>
@@ -2913,10 +2913,10 @@
         <v>17</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G110">
         <v>-1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G111">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G112">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G113">
         <v>-1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G115">
         <v>-1</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G116">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G117">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G118">
         <v>-1</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G120">
         <v>-1</v>
